--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:18:26-04:00</t>
+    <t>2021-11-01T11:33:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T11:33:34-04:00</t>
+    <t>2021-11-03T10:06:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T10:06:32-04:00</t>
+    <t>2022-01-18T12:41:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T12:41:26-05:00</t>
+    <t>2022-01-25T10:18:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T10:18:17-05:00</t>
+    <t>2022-02-08T17:12:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
+++ b/ValueSet-CBSSocialDeterminantsOfHealthVS.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T17:12:45-05:00</t>
+    <t>2022-02-17T15:59:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
